--- a/medicine/Enfance/Caterina_Zandonella/Caterina_Zandonella.xlsx
+++ b/medicine/Enfance/Caterina_Zandonella/Caterina_Zandonella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caterina Zandonella, connue sous le pseudonyme de Cat Zazà, née en 1981[1], est une illustratrice italienne née au XXe siècle à Udine. Elle vit et travaille en France, en région parisienne[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Caterina Zandonella, connue sous le pseudonyme de Cat Zazà, née en 1981, est une illustratrice italienne née au XXe siècle à Udine. Elle vit et travaille en France, en région parisienne.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,18 +551,20 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Fleur de Bambou - Tome 2 "Le Mystere de la Forete Devoree"Scénario de Richard Marazano - Editions Rue de Sevres (l'école des loisirs) Parution May 2019
 Fleur de Bambou - Tome 1 "Les larmes du Grand Esprit" - Scénario de Richard Marazano - Editions Rue de Sevres (l'école des loisirs) Parution 22 Mars 2017
 Storysongs-Chantefables, R.Desnos Traduction en anglais par Timothy Ades.
 Du bout des Doigts, textes Praline Gay Para (Coffret CD + DVD+ Livret), Éditions Enfance et Musique, projet en collaboration avec la Fondation Orange.
 Rishima Reine de Bollywood, Natalie Zimmermann, Éditions Marmaille &amp; Cie.
-La fille du calligraphe, Éditions  Marmaille &amp; Cie - Sélection du Prix des Incorruptibles 2014-2015[3].
+La fille du calligraphe, Éditions  Marmaille &amp; Cie - Sélection du Prix des Incorruptibles 2014-2015.
 La Machine à tout, Lorris Murail, Éditions MiC_MaC, 2008  (ISBN 2917460040).
 L'orage magique, Gudule, Éditions MiC_MaC A pas de loups, 2009.
 Maitre Chronos, Béatrice Egémar, Éditions Bower jeunesse, 2009.
-Algorithme Neutron, Éditions MiC_MaC, 2010[4].</t>
+Algorithme Neutron, Éditions MiC_MaC, 2010.</t>
         </is>
       </c>
     </row>
@@ -576,7 +592,9 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Prix du Herisson 2014 pour La Fille du Calligraphe.
 Sélection prix des Incorruptibles 2014/15 pour La Fille du Calligraphe.
@@ -609,7 +627,9 @@
           <t>Expositions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Sentieri Illustrati, exposition d'illustrations Pordenone (Italie), 2014.
 Un rêve dans un rêve, exposition de peintures et illustrations, Fontenay aux roses (France), 2013, avec Richard Marazano.
